--- a/biology/Zoologie/Cinara_(Cinara)/Cinara_(Cinara).xlsx
+++ b/biology/Zoologie/Cinara_(Cinara)/Cinara_(Cinara).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cinara est un sous-genre de pucerons, des insectes de l'ordre des hémiptères, de la super-famille des Aphidoidea et de la famille des Aphididae.
 </t>
@@ -511,9 +523,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cinara abietihabitans 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cinara abietihabitans 
 - Cinara abietinus 
 - Cinara abietis 
 - Cinara abietisibiricae 
@@ -743,11 +757,46 @@
 - Cinara xylophila 
 - Cinara yukona 
 - Cinara zoarcbursara 
-Espèces fossiles
-On connait 4 espèces fossiles datant toutes du Burdigalien (Miocène) du district de Linqu dans la province du Shandong en Chine.
-†Cinara elegans Zhang[2], 1989 (syn. †Cinara (Cinara) elegans)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cinara_(Cinara)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cinara_(Cinara)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>On connait 4 espèces fossiles datant toutes du Burdigalien (Miocène) du district de Linqu dans la province du Shandong en Chine.
+†Cinara elegans Zhang, 1989 (syn. †Cinara (Cinara) elegans)
 †Cinara limnogena Zhang, 1989 (syn. †Cinara (Cinara) limnogena)
-†Cinara pastica Zhang et al.[3], 1994 (syn. †Cinara pastica)
+†Cinara pastica Zhang et al., 1994 (syn. †Cinara pastica)
 †Cinara reconditivenia Zhang, 1989 (syn. †Cinara (Cinara) reconditivenia)</t>
         </is>
       </c>
